--- a/Fantasy_TeamList.xlsx
+++ b/Fantasy_TeamList.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GHNEX\OneDrive - Bayer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bullet/Documents/Datum/Projects/Baseball/bref-2020-ootp-scrape-pages/far-from-normal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="488" documentId="8_{B054103A-ED0A-4323-867D-D1EF4DCE6E29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{DEA70F38-D101-446E-B471-2BD90B1D2719}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F2CCDAF5-1F3C-468A-9965-31C2AD123E72}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -213,9 +218,6 @@
     <t>Mike Minor (Tex - SP)</t>
   </si>
   <si>
-    <t>Shin-soo Choo (Tex - OF)</t>
-  </si>
-  <si>
     <t>Garrett Hampson (Col - 2B,SS,OF)</t>
   </si>
   <si>
@@ -1132,12 +1134,15 @@
   </si>
   <si>
     <t>Bench</t>
+  </si>
+  <si>
+    <t>Shin-Soo Choo (Tex - OF)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1505,20 +1510,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C426420-1162-4690-B40B-43D71BD51CED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E33" sqref="E33"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1529,44 +1534,44 @@
         <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1575,43 +1580,43 @@
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1622,40 +1627,40 @@
         <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1663,43 +1668,43 @@
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1707,43 +1712,43 @@
         <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1751,43 +1756,43 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1795,43 +1800,43 @@
         <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,40 +1847,40 @@
         <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1883,43 +1888,43 @@
         <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1927,43 +1932,43 @@
         <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>366</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1971,43 +1976,43 @@
         <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="H12" s="2"/>
@@ -2017,9 +2022,9 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>20</v>
@@ -2031,40 +2036,40 @@
         <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2072,43 +2077,43 @@
         <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2116,43 +2121,43 @@
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2163,40 +2168,40 @@
         <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2207,40 +2212,40 @@
         <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
@@ -2251,40 +2256,40 @@
         <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2292,43 +2297,43 @@
         <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2339,40 +2344,40 @@
         <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
@@ -2380,43 +2385,43 @@
         <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
@@ -2424,50 +2429,50 @@
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D23" s="2"/>
       <c r="L23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>16</v>
@@ -2476,43 +2481,43 @@
         <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2520,43 +2525,43 @@
         <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2564,43 +2569,43 @@
         <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
@@ -2608,43 +2613,43 @@
         <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2652,40 +2657,40 @@
         <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
